--- a/working/zenkoku-05.xlsx
+++ b/working/zenkoku-05.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="158">
   <si>
     <t>コード</t>
   </si>
@@ -701,6 +701,16 @@
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>この列を作った</t>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -845,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +929,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,7 +1143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10349,11 +10361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="415255840"/>
-        <c:axId val="415257016"/>
+        <c:axId val="505107400"/>
+        <c:axId val="505107008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415255840"/>
+        <c:axId val="505107400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10396,7 +10408,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415257016"/>
+        <c:crossAx val="505107008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10404,7 +10416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415257016"/>
+        <c:axId val="505107008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -10457,7 +10469,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415255840"/>
+        <c:crossAx val="505107400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10471,7 +10483,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11449,10 +11460,10 @@
   <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11595,6 +11606,20 @@
       </c>
       <c r="Z3" s="5">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AC4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">

--- a/working/zenkoku-05.xlsx
+++ b/working/zenkoku-05.xlsx
@@ -1143,6 +1143,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10361,11 +10362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="505107400"/>
-        <c:axId val="505107008"/>
+        <c:axId val="454722248"/>
+        <c:axId val="454727736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="505107400"/>
+        <c:axId val="454722248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10408,7 +10409,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505107008"/>
+        <c:crossAx val="454727736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10416,7 +10417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="505107008"/>
+        <c:axId val="454727736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -10469,9 +10470,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505107400"/>
+        <c:crossAx val="454722248"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10483,6 +10484,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
